--- a/Redispatch_scenario1.xlsx
+++ b/Redispatch_scenario1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3829566-65B5-482E-85F2-4E3BFE057E3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BEC1F6-A292-445B-90A4-7644D75748B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="7725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="7725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VPP_Units" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="AC-PF-LTVM" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Dispatches!$A$15:$L$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Dispatches!$A$15:$L$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="186">
   <si>
     <t>Code</t>
   </si>
@@ -487,9 +487,6 @@
     <t>WPP</t>
   </si>
   <si>
-    <t>DG</t>
-  </si>
-  <si>
     <t>\\ TSO command for AGC request [MW]</t>
   </si>
   <si>
@@ -682,27 +679,6 @@
     <t>BusName</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mod</t>
-  </si>
-  <si>
-    <t>Dyn</t>
-  </si>
-  <si>
-    <t>Sta</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
     <t>STU</t>
   </si>
   <si>
@@ -715,7 +691,10 @@
     <t>C</t>
   </si>
   <si>
-    <t>regmaxup</t>
+    <t>firstOrderLevel</t>
+  </si>
+  <si>
+    <t>multiplyLevel</t>
   </si>
 </sst>
 </file>
@@ -1581,10 +1560,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,12 +1590,11 @@
     <col min="20" max="20" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.42578125" style="58" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="73" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="71"/>
+    <col min="23" max="23" width="9" style="73" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="48" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="48" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>50</v>
       </c>
@@ -1646,10 +1624,9 @@
       <c r="T1" s="52"/>
       <c r="U1" s="52"/>
       <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="37"/>
-    </row>
-    <row r="2" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="37"/>
+    </row>
+    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="str">
         <f>A15</f>
         <v>ID</v>
@@ -1683,9 +1660,8 @@
       <c r="U2" s="37"/>
       <c r="V2" s="37"/>
       <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-    </row>
-    <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="str">
         <f>B15</f>
         <v>BusNumber</v>
@@ -1719,9 +1695,8 @@
       <c r="U3" s="37"/>
       <c r="V3" s="37"/>
       <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-    </row>
-    <row r="4" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="str">
         <f>C15</f>
         <v>Pmax</v>
@@ -1755,9 +1730,8 @@
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
       <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-    </row>
-    <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="str">
         <f>D15</f>
         <v>Pmin</v>
@@ -1791,9 +1765,8 @@
       <c r="U5" s="37"/>
       <c r="V5" s="37"/>
       <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-    </row>
-    <row r="6" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="str">
         <f>E15</f>
         <v>Qmax</v>
@@ -1810,7 +1783,7 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="93" t="str">
-        <f>X15</f>
+        <f>W15</f>
         <v>UnitType</v>
       </c>
       <c r="L6" s="96" t="s">
@@ -1827,9 +1800,8 @@
       <c r="U6" s="37"/>
       <c r="V6" s="37"/>
       <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-    </row>
-    <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="str">
         <f>F15</f>
         <v>Qmin</v>
@@ -1863,9 +1835,8 @@
       <c r="U7" s="37"/>
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-    </row>
-    <row r="8" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="str">
         <f>L15</f>
         <v>Gen0</v>
@@ -1899,9 +1870,8 @@
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-    </row>
-    <row r="9" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="str">
         <f>G15</f>
         <v>RampUp</v>
@@ -1935,9 +1905,8 @@
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-    </row>
-    <row r="10" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="str">
         <f>H15</f>
         <v>RampStartup</v>
@@ -1971,9 +1940,8 @@
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-    </row>
-    <row r="11" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="str">
         <f>K15</f>
         <v>Gen0Commit</v>
@@ -2007,9 +1975,8 @@
       <c r="U11" s="37"/>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-    </row>
-    <row r="12" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="str">
         <f>I15</f>
         <v>RampDown</v>
@@ -2043,9 +2010,8 @@
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-    </row>
-    <row r="13" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="str">
         <f>J15</f>
         <v>RampShutdown</v>
@@ -2074,9 +2040,8 @@
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-    </row>
-    <row r="14" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -2100,83 +2065,79 @@
       <c r="U14" s="37"/>
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-    </row>
-    <row r="15" spans="1:24" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:23" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="L15" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="K15" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" s="94" t="s">
+      <c r="M15" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="O15" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="P15" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="Q15" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="R15" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="S15" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="T15" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="U15" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="V15" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="V15" s="9" t="s">
+      <c r="W15" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="W15" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>115</v>
       </c>
@@ -2248,15 +2209,11 @@
       <c r="V16" s="89">
         <v>0</v>
       </c>
-      <c r="W16" s="89" t="str">
-        <f>A16</f>
-        <v>WPP</v>
-      </c>
-      <c r="X16" s="73" t="s">
+      <c r="W16" s="73" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
         <v>17</v>
       </c>
@@ -2328,17 +2285,13 @@
       <c r="V17" s="89">
         <v>0</v>
       </c>
-      <c r="W17" s="89" t="str">
-        <f t="shared" ref="W17:W20" si="2">A17</f>
-        <v>PV</v>
-      </c>
-      <c r="X17" s="73" t="s">
+      <c r="W17" s="73" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B18" s="81" t="s">
         <v>9</v>
@@ -2408,17 +2361,13 @@
       <c r="V18" s="89">
         <v>0</v>
       </c>
-      <c r="W18" s="89" t="str">
-        <f t="shared" si="2"/>
-        <v>STU</v>
-      </c>
-      <c r="X18" s="73" t="s">
+      <c r="W18" s="73" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="81" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B19" s="81" t="s">
         <v>9</v>
@@ -2488,17 +2437,13 @@
       <c r="V19" s="89">
         <v>0.9</v>
       </c>
-      <c r="W19" s="89" t="str">
-        <f t="shared" si="2"/>
-        <v>TES</v>
-      </c>
-      <c r="X19" s="73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B20" s="81" t="s">
         <v>7</v>
@@ -2568,15 +2513,11 @@
       <c r="V20" s="89">
         <v>0</v>
       </c>
-      <c r="W20" s="89" t="str">
-        <f t="shared" si="2"/>
-        <v>F-DEM</v>
-      </c>
-      <c r="X20" s="73" t="s">
+      <c r="W20" s="73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21" s="73"/>
       <c r="C21" s="85"/>
       <c r="D21" s="85"/>
@@ -2596,9 +2537,8 @@
       <c r="T21" s="85"/>
       <c r="U21" s="85"/>
       <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22" s="73"/>
       <c r="C22" s="85"/>
       <c r="D22" s="85"/>
@@ -2618,9 +2558,8 @@
       <c r="T22" s="85"/>
       <c r="U22" s="85"/>
       <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-    </row>
-    <row r="23" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:23" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="73"/>
       <c r="B23" s="73"/>
       <c r="C23" s="87"/>
@@ -2643,10 +2582,9 @@
       <c r="T23" s="85"/>
       <c r="U23" s="85"/>
       <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="73"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W23" s="73"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="76"/>
       <c r="B24" s="76"/>
       <c r="C24" s="85"/>
@@ -2669,10 +2607,9 @@
       <c r="T24" s="88"/>
       <c r="U24" s="88"/>
       <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="76"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W24" s="76"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B25" s="73"/>
       <c r="C25" s="85"/>
       <c r="D25" s="85"/>
@@ -2692,9 +2629,8 @@
       <c r="T25" s="85"/>
       <c r="U25" s="85"/>
       <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B26" s="73"/>
       <c r="C26" s="85"/>
       <c r="D26" s="85"/>
@@ -2714,9 +2650,8 @@
       <c r="T26" s="85"/>
       <c r="U26" s="85"/>
       <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="76"/>
       <c r="B27" s="76"/>
       <c r="C27" s="85"/>
@@ -2739,22 +2674,21 @@
       <c r="T27" s="88"/>
       <c r="U27" s="88"/>
       <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
-      <c r="X27" s="76"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W27" s="76"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B28" s="73"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B29" s="73"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30" s="73"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B31" s="73"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B32" s="73"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -2775,7 +2709,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G16:J20 L16:L20 W16:W20" unlockedFormula="1"/>
+    <ignoredError sqref="G16:J20 L16:L20" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2787,8 +2721,8 @@
   </sheetPr>
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,7 +2746,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>45</v>
@@ -2934,7 +2868,7 @@
         <v>TsoCommand</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -2956,7 +2890,7 @@
         <v>SolverSelect</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -3158,46 +3092,46 @@
         <v>53</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="K15" s="97" t="s">
         <v>149</v>
-      </c>
-      <c r="K15" s="97" t="s">
-        <v>150</v>
       </c>
       <c r="L15" s="97" t="s">
         <v>105</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>54</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P15" s="53"/>
       <c r="Q15" s="53"/>
@@ -3206,16 +3140,16 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="82">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B16" s="82">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C16" s="82">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D16" s="82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="82">
         <v>750</v>
@@ -3224,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" s="82">
         <v>22.5</v>
@@ -3860,8 +3794,8 @@
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4" xr:uid="{836B3DBF-9DE2-44EB-A84C-57C1AE98E54E}">
       <formula1>Q1048571</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16 C16" xr:uid="{D33B0D51-83CF-4C02-8F09-A7FE556FDF89}">
-      <formula1>A16</formula1>
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16" xr:uid="{D33B0D51-83CF-4C02-8F09-A7FE556FDF89}">
+      <formula1>B16</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{08A6066C-2D5C-439A-BACD-870E29BE243A}">
       <formula1>A10</formula1>
@@ -3880,7 +3814,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4133,28 +4067,28 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="J15" s="37"/>
     </row>
@@ -4193,7 +4127,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C17" s="37" t="str">
         <f t="shared" ref="C17:C22" si="0">A17</f>
@@ -4223,7 +4157,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="106" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C18" s="37" t="str">
         <f t="shared" si="0"/>
@@ -4253,7 +4187,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="106" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C19" s="37" t="str">
         <f t="shared" si="0"/>
@@ -4283,7 +4217,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="106" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C20" s="37" t="str">
         <f t="shared" si="0"/>
@@ -4313,7 +4247,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="106" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C21" s="37" t="str">
         <f t="shared" si="0"/>
@@ -4343,7 +4277,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="106" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C22" s="37" t="str">
         <f t="shared" si="0"/>
@@ -4397,7 +4331,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,31 +4550,31 @@
     </row>
     <row r="15" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="D15" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="E15" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="F15" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>166</v>
-      </c>
       <c r="G15" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="I15" s="42" t="s">
         <v>178</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4901,8 +4835,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5065,13 +4999,13 @@
         <v>53</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>Dispatches!K15</f>
@@ -5548,10 +5482,10 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BB303"/>
+  <dimension ref="A1:BB300"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J304" sqref="J304"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5700,12 +5634,6 @@
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
       <c r="L7" s="65"/>
-      <c r="Q7" t="s">
-        <v>184</v>
-      </c>
-      <c r="R7" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="str">
@@ -5744,22 +5672,8 @@
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65"/>
-      <c r="O9" t="s">
-        <v>187</v>
-      </c>
-      <c r="P9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q9" s="53">
-        <v>31.5</v>
-      </c>
-      <c r="R9">
-        <v>38.18</v>
-      </c>
-      <c r="S9" s="102">
-        <f>Q9/R9</f>
-        <v>0.82503928758512313</v>
-      </c>
+      <c r="Q9" s="53"/>
+      <c r="S9" s="102"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="str">
@@ -5779,22 +5693,8 @@
       <c r="J10" s="65"/>
       <c r="K10" s="65"/>
       <c r="L10" s="65"/>
-      <c r="O10" t="s">
-        <v>186</v>
-      </c>
-      <c r="P10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="53">
-        <v>43</v>
-      </c>
-      <c r="R10">
-        <v>49.68</v>
-      </c>
-      <c r="S10" s="102">
-        <f>Q10/R10</f>
-        <v>0.86553945249597419</v>
-      </c>
+      <c r="Q10" s="53"/>
+      <c r="S10" s="102"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="str">
@@ -5814,22 +5714,8 @@
       <c r="J11" s="65"/>
       <c r="K11" s="65"/>
       <c r="L11" s="65"/>
-      <c r="O11" t="s">
-        <v>185</v>
-      </c>
-      <c r="P11" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q11" s="53">
-        <v>17</v>
-      </c>
-      <c r="R11">
-        <v>23.68</v>
-      </c>
-      <c r="S11" s="102">
-        <f>Q11/R11</f>
-        <v>0.71790540540540537</v>
-      </c>
+      <c r="Q11" s="53"/>
+      <c r="S11" s="102"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="str">
@@ -5979,31 +5865,31 @@
         <v>52</v>
       </c>
       <c r="D15" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="F15" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="G15" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="H15" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="I15" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="J15" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="J15" s="68" t="s">
-        <v>173</v>
-      </c>
       <c r="K15" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" s="68" t="s">
         <v>175</v>
-      </c>
-      <c r="L15" s="68" t="s">
-        <v>176</v>
       </c>
       <c r="M15" s="53"/>
       <c r="N15" s="53"/>
@@ -6016,7 +5902,7 @@
     </row>
     <row r="16" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B16" s="70">
         <v>1</v>
@@ -6050,7 +5936,7 @@
     </row>
     <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B17" s="70">
         <v>2</v>
@@ -6084,7 +5970,7 @@
     </row>
     <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B18" s="70">
         <v>3</v>
@@ -6118,7 +6004,7 @@
     </row>
     <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B19" s="70">
         <v>4</v>
@@ -6152,7 +6038,7 @@
     </row>
     <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B20" s="70">
         <v>5</v>
@@ -6186,7 +6072,7 @@
     </row>
     <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B21" s="70">
         <v>6</v>
@@ -6220,7 +6106,7 @@
     </row>
     <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B22" s="70">
         <v>7</v>
@@ -6254,7 +6140,7 @@
     </row>
     <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B23" s="70">
         <v>8</v>
@@ -6288,7 +6174,7 @@
     </row>
     <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B24" s="70">
         <v>9</v>
@@ -6322,7 +6208,7 @@
     </row>
     <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B25" s="70">
         <v>10</v>
@@ -6356,7 +6242,7 @@
     </row>
     <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B26" s="70">
         <v>11</v>
@@ -6390,7 +6276,7 @@
     </row>
     <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B27" s="70">
         <v>12</v>
@@ -6424,7 +6310,7 @@
     </row>
     <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B28" s="70">
         <v>13</v>
@@ -6458,7 +6344,7 @@
     </row>
     <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B29" s="70">
         <v>14</v>
@@ -6492,7 +6378,7 @@
     </row>
     <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B30" s="70">
         <v>15</v>
@@ -6526,7 +6412,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B31" s="70">
         <v>16</v>
@@ -6561,7 +6447,7 @@
     </row>
     <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B32" s="70">
         <v>17</v>
@@ -6595,7 +6481,7 @@
     </row>
     <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B33" s="70">
         <v>18</v>
@@ -6629,7 +6515,7 @@
     </row>
     <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B34" s="70">
         <v>19</v>
@@ -6663,7 +6549,7 @@
     </row>
     <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B35" s="70">
         <v>20</v>
@@ -6697,7 +6583,7 @@
     </row>
     <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B36" s="70">
         <v>21</v>
@@ -6731,7 +6617,7 @@
     </row>
     <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B37" s="70">
         <v>22</v>
@@ -6765,7 +6651,7 @@
     </row>
     <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B38" s="70">
         <v>23</v>
@@ -6799,7 +6685,7 @@
     </row>
     <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B39" s="70">
         <v>24</v>
@@ -6833,7 +6719,7 @@
     </row>
     <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B40" s="70">
         <v>1</v>
@@ -6867,7 +6753,7 @@
     </row>
     <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B41" s="70">
         <v>2</v>
@@ -6901,7 +6787,7 @@
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B42" s="70">
         <v>3</v>
@@ -6935,7 +6821,7 @@
     </row>
     <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B43" s="70">
         <v>4</v>
@@ -6969,7 +6855,7 @@
     </row>
     <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B44" s="70">
         <v>5</v>
@@ -7003,7 +6889,7 @@
     </row>
     <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B45" s="70">
         <v>6</v>
@@ -7037,7 +6923,7 @@
     </row>
     <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B46" s="70">
         <v>7</v>
@@ -7071,7 +6957,7 @@
     </row>
     <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B47" s="70">
         <v>8</v>
@@ -7105,7 +6991,7 @@
     </row>
     <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B48" s="70">
         <v>9</v>
@@ -7139,7 +7025,7 @@
     </row>
     <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B49" s="70">
         <v>10</v>
@@ -7173,7 +7059,7 @@
     </row>
     <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B50" s="70">
         <v>11</v>
@@ -7207,7 +7093,7 @@
     </row>
     <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B51" s="70">
         <v>12</v>
@@ -7241,7 +7127,7 @@
     </row>
     <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B52" s="70">
         <v>13</v>
@@ -7275,7 +7161,7 @@
     </row>
     <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B53" s="70">
         <v>14</v>
@@ -7309,7 +7195,7 @@
     </row>
     <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B54" s="70">
         <v>15</v>
@@ -7344,7 +7230,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B55" s="70">
         <v>16</v>
@@ -7378,7 +7264,7 @@
     </row>
     <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B56" s="70">
         <v>17</v>
@@ -7412,7 +7298,7 @@
     </row>
     <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B57" s="70">
         <v>18</v>
@@ -7446,7 +7332,7 @@
     </row>
     <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B58" s="70">
         <v>19</v>
@@ -7480,7 +7366,7 @@
     </row>
     <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B59" s="70">
         <v>20</v>
@@ -7514,7 +7400,7 @@
     </row>
     <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B60" s="70">
         <v>21</v>
@@ -7548,7 +7434,7 @@
     </row>
     <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B61" s="70">
         <v>22</v>
@@ -7582,7 +7468,7 @@
     </row>
     <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B62" s="70">
         <v>23</v>
@@ -7616,7 +7502,7 @@
     </row>
     <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="70" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B63" s="70">
         <v>24</v>
@@ -7650,7 +7536,7 @@
     </row>
     <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B64" s="70">
         <v>1</v>
@@ -7684,7 +7570,7 @@
     </row>
     <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B65" s="70">
         <v>2</v>
@@ -7718,7 +7604,7 @@
     </row>
     <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B66" s="70">
         <v>3</v>
@@ -7752,7 +7638,7 @@
     </row>
     <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B67" s="70">
         <v>4</v>
@@ -7786,7 +7672,7 @@
     </row>
     <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B68" s="70">
         <v>5</v>
@@ -7820,7 +7706,7 @@
     </row>
     <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B69" s="70">
         <v>6</v>
@@ -7854,7 +7740,7 @@
     </row>
     <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B70" s="70">
         <v>7</v>
@@ -7888,7 +7774,7 @@
     </row>
     <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B71" s="70">
         <v>8</v>
@@ -7922,7 +7808,7 @@
     </row>
     <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B72" s="70">
         <v>9</v>
@@ -7956,7 +7842,7 @@
     </row>
     <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B73" s="70">
         <v>10</v>
@@ -7990,7 +7876,7 @@
     </row>
     <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B74" s="70">
         <v>11</v>
@@ -8024,7 +7910,7 @@
     </row>
     <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B75" s="70">
         <v>12</v>
@@ -8058,7 +7944,7 @@
     </row>
     <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B76" s="70">
         <v>13</v>
@@ -8092,7 +7978,7 @@
     </row>
     <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B77" s="70">
         <v>14</v>
@@ -8126,7 +8012,7 @@
     </row>
     <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B78" s="70">
         <v>15</v>
@@ -8161,7 +8047,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B79" s="70">
         <v>16</v>
@@ -8196,7 +8082,7 @@
     </row>
     <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B80" s="70">
         <v>17</v>
@@ -8230,7 +8116,7 @@
     </row>
     <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B81" s="70">
         <v>18</v>
@@ -8264,7 +8150,7 @@
     </row>
     <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B82" s="70">
         <v>19</v>
@@ -8298,7 +8184,7 @@
     </row>
     <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B83" s="70">
         <v>20</v>
@@ -8332,7 +8218,7 @@
     </row>
     <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B84" s="70">
         <v>21</v>
@@ -8366,7 +8252,7 @@
     </row>
     <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B85" s="70">
         <v>22</v>
@@ -8400,7 +8286,7 @@
     </row>
     <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B86" s="70">
         <v>23</v>
@@ -8434,7 +8320,7 @@
     </row>
     <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B87" s="70">
         <v>24</v>
@@ -8919,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="58">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E101" s="58">
         <v>0</v>
@@ -9005,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="58">
-        <v>10.290000000000003</v>
+        <v>10.29</v>
       </c>
       <c r="K103" s="69"/>
       <c r="L103" s="69"/>
@@ -9316,7 +9202,7 @@
       <c r="K112" s="69"/>
       <c r="L112" s="69"/>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="70" t="s">
         <v>17</v>
       </c>
@@ -9350,7 +9236,7 @@
       <c r="K113" s="69"/>
       <c r="L113" s="69"/>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="70" t="s">
         <v>17</v>
       </c>
@@ -9384,7 +9270,7 @@
       <c r="K114" s="69"/>
       <c r="L114" s="69"/>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="70" t="s">
         <v>17</v>
       </c>
@@ -9418,7 +9304,7 @@
       <c r="K115" s="69"/>
       <c r="L115" s="69"/>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="70" t="s">
         <v>17</v>
       </c>
@@ -9452,7 +9338,7 @@
       <c r="K116" s="69"/>
       <c r="L116" s="69"/>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="70" t="s">
         <v>17</v>
       </c>
@@ -9486,7 +9372,7 @@
       <c r="K117" s="69"/>
       <c r="L117" s="69"/>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="70" t="s">
         <v>17</v>
       </c>
@@ -9520,7 +9406,7 @@
       <c r="K118" s="69"/>
       <c r="L118" s="69"/>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="70" t="s">
         <v>17</v>
       </c>
@@ -9554,7 +9440,7 @@
       <c r="K119" s="69"/>
       <c r="L119" s="69"/>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="70" t="s">
         <v>17</v>
       </c>
@@ -9588,7 +9474,7 @@
       <c r="K120" s="69"/>
       <c r="L120" s="69"/>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="70" t="s">
         <v>17</v>
       </c>
@@ -9622,7 +9508,7 @@
       <c r="K121" s="69"/>
       <c r="L121" s="69"/>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="70" t="s">
         <v>17</v>
       </c>
@@ -9656,7 +9542,7 @@
       <c r="K122" s="69"/>
       <c r="L122" s="69"/>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="70" t="s">
         <v>17</v>
       </c>
@@ -9690,7 +9576,7 @@
       <c r="K123" s="69"/>
       <c r="L123" s="69"/>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="70" t="s">
         <v>17</v>
       </c>
@@ -9724,7 +9610,7 @@
       <c r="K124" s="69"/>
       <c r="L124" s="69"/>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="70" t="s">
         <v>17</v>
       </c>
@@ -9758,7 +9644,7 @@
       <c r="K125" s="69"/>
       <c r="L125" s="69"/>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="70" t="s">
         <v>17</v>
       </c>
@@ -9792,7 +9678,7 @@
       <c r="K126" s="69"/>
       <c r="L126" s="69"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="70" t="s">
         <v>17</v>
       </c>
@@ -9825,14 +9711,9 @@
       </c>
       <c r="K127" s="69"/>
       <c r="L127" s="69"/>
-      <c r="O127" s="58">
-        <v>12.059999999999995</v>
-      </c>
-      <c r="P127" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O127" s="53"/>
+    </row>
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="70" t="s">
         <v>17</v>
       </c>
@@ -10104,7 +9985,7 @@
       <c r="K135" s="69"/>
       <c r="L135" s="69"/>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="70"/>
       <c r="B136" s="70"/>
       <c r="C136" s="108"/>
@@ -10118,7 +9999,7 @@
       <c r="K136" s="69"/>
       <c r="L136" s="69"/>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="70"/>
       <c r="B137" s="70"/>
       <c r="C137" s="108"/>
@@ -10132,11 +10013,11 @@
       <c r="K137" s="69"/>
       <c r="L137" s="69"/>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="70"/>
       <c r="B138" s="70"/>
       <c r="C138" s="108"/>
-      <c r="D138" s="58"/>
+      <c r="D138" s="85"/>
       <c r="E138" s="58"/>
       <c r="F138" s="58"/>
       <c r="G138" s="58"/>
@@ -10146,7 +10027,7 @@
       <c r="K138" s="69"/>
       <c r="L138" s="69"/>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="70"/>
       <c r="B139" s="70"/>
       <c r="C139" s="108"/>
@@ -10160,7 +10041,7 @@
       <c r="K139" s="69"/>
       <c r="L139" s="69"/>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="70"/>
       <c r="B140" s="70"/>
       <c r="C140" s="108"/>
@@ -10174,7 +10055,7 @@
       <c r="K140" s="69"/>
       <c r="L140" s="69"/>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="70"/>
       <c r="B141" s="70"/>
       <c r="C141" s="108"/>
@@ -10188,7 +10069,7 @@
       <c r="K141" s="69"/>
       <c r="L141" s="69"/>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="70"/>
       <c r="B142" s="70"/>
       <c r="C142" s="108"/>
@@ -10202,7 +10083,7 @@
       <c r="K142" s="69"/>
       <c r="L142" s="69"/>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="70"/>
       <c r="B143" s="70"/>
       <c r="C143" s="108"/>
@@ -10216,7 +10097,7 @@
       <c r="K143" s="69"/>
       <c r="L143" s="69"/>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="70"/>
       <c r="B144" s="70"/>
       <c r="C144" s="108"/>
@@ -10230,7 +10111,7 @@
       <c r="K144" s="69"/>
       <c r="L144" s="69"/>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="70"/>
       <c r="B145" s="70"/>
       <c r="C145" s="108"/>
@@ -10244,7 +10125,7 @@
       <c r="K145" s="69"/>
       <c r="L145" s="69"/>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="70"/>
       <c r="B146" s="70"/>
       <c r="C146" s="108"/>
@@ -10258,7 +10139,7 @@
       <c r="K146" s="69"/>
       <c r="L146" s="69"/>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="70"/>
       <c r="B147" s="70"/>
       <c r="C147" s="108"/>
@@ -10272,7 +10153,7 @@
       <c r="K147" s="69"/>
       <c r="L147" s="69"/>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="70"/>
       <c r="B148" s="70"/>
       <c r="C148" s="108"/>
@@ -10286,7 +10167,7 @@
       <c r="K148" s="69"/>
       <c r="L148" s="69"/>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="70"/>
       <c r="B149" s="70"/>
       <c r="C149" s="108"/>
@@ -10300,7 +10181,7 @@
       <c r="K149" s="69"/>
       <c r="L149" s="69"/>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="70"/>
       <c r="B150" s="70"/>
       <c r="C150" s="108"/>
@@ -10314,7 +10195,7 @@
       <c r="K150" s="69"/>
       <c r="L150" s="69"/>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="70"/>
       <c r="B151" s="70"/>
       <c r="C151" s="108"/>
@@ -10328,7 +10209,7 @@
       <c r="K151" s="69"/>
       <c r="L151" s="69"/>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="70"/>
       <c r="B152" s="70"/>
       <c r="C152" s="108"/>
@@ -10342,7 +10223,7 @@
       <c r="K152" s="69"/>
       <c r="L152" s="69"/>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="70"/>
       <c r="B153" s="70"/>
       <c r="C153" s="108"/>
@@ -10356,7 +10237,7 @@
       <c r="K153" s="69"/>
       <c r="L153" s="69"/>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="70"/>
       <c r="B154" s="70"/>
       <c r="C154" s="108"/>
@@ -10370,7 +10251,7 @@
       <c r="K154" s="69"/>
       <c r="L154" s="69"/>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="70"/>
       <c r="B155" s="70"/>
       <c r="C155" s="108"/>
@@ -10384,7 +10265,7 @@
       <c r="K155" s="69"/>
       <c r="L155" s="69"/>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="70"/>
       <c r="B156" s="70"/>
       <c r="C156" s="108"/>
@@ -10398,7 +10279,7 @@
       <c r="K156" s="69"/>
       <c r="L156" s="69"/>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="70"/>
       <c r="B157" s="70"/>
       <c r="C157" s="108"/>
@@ -10412,7 +10293,7 @@
       <c r="K157" s="69"/>
       <c r="L157" s="69"/>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="70"/>
       <c r="B158" s="70"/>
       <c r="C158" s="108"/>
@@ -10426,7 +10307,7 @@
       <c r="K158" s="69"/>
       <c r="L158" s="69"/>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="70"/>
       <c r="B159" s="70"/>
       <c r="C159" s="108"/>
@@ -10440,7 +10321,7 @@
       <c r="K159" s="69"/>
       <c r="L159" s="69"/>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="70"/>
       <c r="B160" s="70"/>
       <c r="C160" s="108"/>
@@ -10454,7 +10335,7 @@
       <c r="K160" s="69"/>
       <c r="L160" s="69"/>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="70"/>
       <c r="B161" s="70"/>
       <c r="C161" s="108"/>
@@ -10468,7 +10349,7 @@
       <c r="K161" s="69"/>
       <c r="L161" s="69"/>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="70"/>
       <c r="B162" s="70"/>
       <c r="C162" s="108"/>
@@ -10482,7 +10363,7 @@
       <c r="K162" s="69"/>
       <c r="L162" s="69"/>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="70"/>
       <c r="B163" s="70"/>
       <c r="C163" s="108"/>
@@ -10496,7 +10377,7 @@
       <c r="K163" s="69"/>
       <c r="L163" s="69"/>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="70"/>
       <c r="B164" s="70"/>
       <c r="C164" s="108"/>
@@ -10510,7 +10391,7 @@
       <c r="K164" s="69"/>
       <c r="L164" s="69"/>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="70"/>
       <c r="B165" s="70"/>
       <c r="C165" s="108"/>
@@ -10524,7 +10405,7 @@
       <c r="K165" s="69"/>
       <c r="L165" s="69"/>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="70"/>
       <c r="B166" s="70"/>
       <c r="C166" s="108"/>
@@ -10538,7 +10419,7 @@
       <c r="K166" s="69"/>
       <c r="L166" s="69"/>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="70"/>
       <c r="B167" s="70"/>
       <c r="C167" s="108"/>
@@ -10552,7 +10433,7 @@
       <c r="K167" s="69"/>
       <c r="L167" s="69"/>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="70"/>
       <c r="B168" s="70"/>
       <c r="C168" s="108"/>
@@ -10566,7 +10447,7 @@
       <c r="K168" s="69"/>
       <c r="L168" s="69"/>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="70"/>
       <c r="B169" s="70"/>
       <c r="C169" s="108"/>
@@ -10580,7 +10461,7 @@
       <c r="K169" s="69"/>
       <c r="L169" s="69"/>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="70"/>
       <c r="B170" s="70"/>
       <c r="C170" s="108"/>
@@ -10594,7 +10475,7 @@
       <c r="K170" s="69"/>
       <c r="L170" s="69"/>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="70"/>
       <c r="B171" s="70"/>
       <c r="C171" s="108"/>
@@ -10608,7 +10489,7 @@
       <c r="K171" s="69"/>
       <c r="L171" s="69"/>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="70"/>
       <c r="B172" s="70"/>
       <c r="C172" s="108"/>
@@ -10622,7 +10503,7 @@
       <c r="K172" s="69"/>
       <c r="L172" s="69"/>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="70"/>
       <c r="B173" s="70"/>
       <c r="C173" s="108"/>
@@ -10636,7 +10517,7 @@
       <c r="K173" s="69"/>
       <c r="L173" s="69"/>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="70"/>
       <c r="B174" s="70"/>
       <c r="C174" s="108"/>
@@ -10650,7 +10531,7 @@
       <c r="K174" s="69"/>
       <c r="L174" s="69"/>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="70"/>
       <c r="B175" s="70"/>
       <c r="C175" s="108"/>
@@ -10664,7 +10545,7 @@
       <c r="K175" s="69"/>
       <c r="L175" s="69"/>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="70"/>
       <c r="B176" s="70"/>
       <c r="C176" s="108"/>
@@ -10678,7 +10559,7 @@
       <c r="K176" s="69"/>
       <c r="L176" s="69"/>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="70"/>
       <c r="B177" s="70"/>
       <c r="C177" s="108"/>
@@ -10692,7 +10573,7 @@
       <c r="K177" s="69"/>
       <c r="L177" s="69"/>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="70"/>
       <c r="B178" s="70"/>
       <c r="C178" s="108"/>
@@ -10706,7 +10587,7 @@
       <c r="K178" s="69"/>
       <c r="L178" s="69"/>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="70"/>
       <c r="B179" s="70"/>
       <c r="C179" s="108"/>
@@ -10720,7 +10601,7 @@
       <c r="K179" s="69"/>
       <c r="L179" s="69"/>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="70"/>
       <c r="B180" s="70"/>
       <c r="C180" s="108"/>
@@ -10734,7 +10615,7 @@
       <c r="K180" s="69"/>
       <c r="L180" s="69"/>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="70"/>
       <c r="B181" s="70"/>
       <c r="C181" s="108"/>
@@ -10748,7 +10629,7 @@
       <c r="K181" s="69"/>
       <c r="L181" s="69"/>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="70"/>
       <c r="B182" s="70"/>
       <c r="C182" s="108"/>
@@ -10762,7 +10643,7 @@
       <c r="K182" s="69"/>
       <c r="L182" s="69"/>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="70"/>
       <c r="B183" s="70"/>
       <c r="C183" s="108"/>
@@ -10776,7 +10657,7 @@
       <c r="K183" s="69"/>
       <c r="L183" s="69"/>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="70"/>
       <c r="B184" s="70"/>
       <c r="C184" s="108"/>
@@ -10790,7 +10671,7 @@
       <c r="K184" s="69"/>
       <c r="L184" s="69"/>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="70"/>
       <c r="B185" s="70"/>
       <c r="C185" s="108"/>
@@ -10804,7 +10685,7 @@
       <c r="K185" s="69"/>
       <c r="L185" s="69"/>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="70"/>
       <c r="B186" s="70"/>
       <c r="C186" s="108"/>
@@ -10818,7 +10699,7 @@
       <c r="K186" s="69"/>
       <c r="L186" s="69"/>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="70"/>
       <c r="B187" s="70"/>
       <c r="C187" s="108"/>
@@ -10832,7 +10713,7 @@
       <c r="K187" s="69"/>
       <c r="L187" s="69"/>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="70"/>
       <c r="B188" s="70"/>
       <c r="C188" s="108"/>
@@ -10846,7 +10727,7 @@
       <c r="K188" s="69"/>
       <c r="L188" s="69"/>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="70"/>
       <c r="B189" s="70"/>
       <c r="C189" s="108"/>
@@ -10860,7 +10741,7 @@
       <c r="K189" s="69"/>
       <c r="L189" s="69"/>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="70"/>
       <c r="B190" s="70"/>
       <c r="C190" s="108"/>
@@ -10874,7 +10755,7 @@
       <c r="K190" s="69"/>
       <c r="L190" s="69"/>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="70"/>
       <c r="B191" s="70"/>
       <c r="C191" s="108"/>
@@ -10888,7 +10769,7 @@
       <c r="K191" s="69"/>
       <c r="L191" s="69"/>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="70"/>
       <c r="B192" s="70"/>
       <c r="C192" s="108"/>
@@ -10902,7 +10783,7 @@
       <c r="K192" s="69"/>
       <c r="L192" s="69"/>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="70"/>
       <c r="B193" s="70"/>
       <c r="C193" s="108"/>
@@ -10916,7 +10797,7 @@
       <c r="K193" s="69"/>
       <c r="L193" s="69"/>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="70"/>
       <c r="B194" s="70"/>
       <c r="C194" s="108"/>
@@ -10930,7 +10811,7 @@
       <c r="K194" s="69"/>
       <c r="L194" s="69"/>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="70"/>
       <c r="B195" s="70"/>
       <c r="C195" s="108"/>
@@ -10944,7 +10825,7 @@
       <c r="K195" s="69"/>
       <c r="L195" s="69"/>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="70"/>
       <c r="B196" s="70"/>
       <c r="C196" s="108"/>
@@ -10958,7 +10839,7 @@
       <c r="K196" s="69"/>
       <c r="L196" s="69"/>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="70"/>
       <c r="B197" s="70"/>
       <c r="C197" s="108"/>
@@ -10972,7 +10853,7 @@
       <c r="K197" s="69"/>
       <c r="L197" s="69"/>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="70"/>
       <c r="B198" s="70"/>
       <c r="C198" s="109"/>
@@ -10986,7 +10867,7 @@
       <c r="K198" s="69"/>
       <c r="L198" s="69"/>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="70"/>
       <c r="B199" s="70"/>
       <c r="C199" s="109"/>
@@ -11000,7 +10881,7 @@
       <c r="K199" s="69"/>
       <c r="L199" s="69"/>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="70"/>
       <c r="B200" s="70"/>
       <c r="C200" s="108"/>
@@ -11014,7 +10895,7 @@
       <c r="K200" s="69"/>
       <c r="L200" s="69"/>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="70"/>
       <c r="B201" s="70"/>
       <c r="C201" s="108"/>
@@ -11028,7 +10909,7 @@
       <c r="K201" s="69"/>
       <c r="L201" s="69"/>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="70"/>
       <c r="B202" s="70"/>
       <c r="C202" s="108"/>
@@ -11042,7 +10923,7 @@
       <c r="K202" s="69"/>
       <c r="L202" s="69"/>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="70"/>
       <c r="B203" s="70"/>
       <c r="C203" s="108"/>
@@ -11056,7 +10937,7 @@
       <c r="K203" s="69"/>
       <c r="L203" s="69"/>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="70"/>
       <c r="B204" s="70"/>
       <c r="C204" s="108"/>
@@ -11070,7 +10951,7 @@
       <c r="K204" s="69"/>
       <c r="L204" s="69"/>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="70"/>
       <c r="B205" s="70"/>
       <c r="C205" s="108"/>
@@ -11084,7 +10965,7 @@
       <c r="K205" s="69"/>
       <c r="L205" s="69"/>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="70"/>
       <c r="B206" s="70"/>
       <c r="C206" s="108"/>
@@ -11098,7 +10979,7 @@
       <c r="K206" s="69"/>
       <c r="L206" s="69"/>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="70"/>
       <c r="B207" s="70"/>
       <c r="C207" s="108"/>
@@ -11112,7 +10993,7 @@
       <c r="K207" s="69"/>
       <c r="L207" s="69"/>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="70"/>
       <c r="B208" s="70"/>
       <c r="C208" s="108"/>
@@ -11126,7 +11007,7 @@
       <c r="K208" s="69"/>
       <c r="L208" s="69"/>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="70"/>
       <c r="B209" s="70"/>
       <c r="C209" s="108"/>
@@ -11140,7 +11021,7 @@
       <c r="K209" s="69"/>
       <c r="L209" s="69"/>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="70"/>
       <c r="B210" s="70"/>
       <c r="C210" s="108"/>
@@ -11154,7 +11035,7 @@
       <c r="K210" s="69"/>
       <c r="L210" s="69"/>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="70"/>
       <c r="B211" s="70"/>
       <c r="C211" s="108"/>
@@ -11168,7 +11049,7 @@
       <c r="K211" s="69"/>
       <c r="L211" s="69"/>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="70"/>
       <c r="B212" s="70"/>
       <c r="C212" s="108"/>
@@ -11182,7 +11063,7 @@
       <c r="K212" s="69"/>
       <c r="L212" s="69"/>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="70"/>
       <c r="B213" s="70"/>
       <c r="C213" s="108"/>
@@ -11196,7 +11077,7 @@
       <c r="K213" s="69"/>
       <c r="L213" s="69"/>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="70"/>
       <c r="B214" s="70"/>
       <c r="C214" s="108"/>
@@ -11210,7 +11091,7 @@
       <c r="K214" s="69"/>
       <c r="L214" s="69"/>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="70"/>
       <c r="B215" s="70"/>
       <c r="C215" s="108"/>
@@ -11224,7 +11105,7 @@
       <c r="K215" s="69"/>
       <c r="L215" s="69"/>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="70"/>
       <c r="B216" s="70"/>
       <c r="C216" s="108"/>
@@ -11238,7 +11119,7 @@
       <c r="K216" s="69"/>
       <c r="L216" s="69"/>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="70"/>
       <c r="B217" s="70"/>
       <c r="C217" s="108"/>
@@ -11252,7 +11133,7 @@
       <c r="K217" s="69"/>
       <c r="L217" s="69"/>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="70"/>
       <c r="B218" s="70"/>
       <c r="C218" s="108"/>
@@ -11266,7 +11147,7 @@
       <c r="K218" s="69"/>
       <c r="L218" s="69"/>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="70"/>
       <c r="B219" s="70"/>
       <c r="C219" s="108"/>
@@ -11280,7 +11161,7 @@
       <c r="K219" s="69"/>
       <c r="L219" s="69"/>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="70"/>
       <c r="B220" s="70"/>
       <c r="C220" s="108"/>
@@ -11294,7 +11175,7 @@
       <c r="K220" s="69"/>
       <c r="L220" s="69"/>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="70"/>
       <c r="B221" s="70"/>
       <c r="C221" s="108"/>
@@ -11308,7 +11189,7 @@
       <c r="K221" s="69"/>
       <c r="L221" s="69"/>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="70"/>
       <c r="B222" s="70"/>
       <c r="C222" s="108"/>
@@ -11322,7 +11203,7 @@
       <c r="K222" s="69"/>
       <c r="L222" s="69"/>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="70"/>
       <c r="B223" s="70"/>
       <c r="C223" s="108"/>
@@ -11336,7 +11217,7 @@
       <c r="K223" s="69"/>
       <c r="L223" s="69"/>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="70"/>
       <c r="B224" s="70"/>
       <c r="C224" s="108"/>
@@ -11350,7 +11231,7 @@
       <c r="K224" s="69"/>
       <c r="L224" s="69"/>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="70"/>
       <c r="B225" s="70"/>
       <c r="C225" s="108"/>
@@ -11364,7 +11245,7 @@
       <c r="K225" s="69"/>
       <c r="L225" s="69"/>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="70"/>
       <c r="B226" s="70"/>
       <c r="C226" s="108"/>
@@ -11378,7 +11259,7 @@
       <c r="K226" s="69"/>
       <c r="L226" s="69"/>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="70"/>
       <c r="B227" s="70"/>
       <c r="C227" s="108"/>
@@ -11392,7 +11273,7 @@
       <c r="K227" s="69"/>
       <c r="L227" s="69"/>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="70"/>
       <c r="B228" s="70"/>
       <c r="C228" s="108"/>
@@ -11406,7 +11287,7 @@
       <c r="K228" s="69"/>
       <c r="L228" s="69"/>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="70"/>
       <c r="B229" s="70"/>
       <c r="C229" s="108"/>
@@ -11420,7 +11301,7 @@
       <c r="K229" s="69"/>
       <c r="L229" s="69"/>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="70"/>
       <c r="B230" s="70"/>
       <c r="C230" s="108"/>
@@ -11434,7 +11315,7 @@
       <c r="K230" s="69"/>
       <c r="L230" s="69"/>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="70"/>
       <c r="B231" s="70"/>
       <c r="C231" s="108"/>
@@ -11448,7 +11329,7 @@
       <c r="K231" s="69"/>
       <c r="L231" s="69"/>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="70"/>
       <c r="B232" s="70"/>
       <c r="C232" s="108"/>
@@ -11462,7 +11343,7 @@
       <c r="K232" s="69"/>
       <c r="L232" s="69"/>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="70"/>
       <c r="B233" s="70"/>
       <c r="C233" s="108"/>
@@ -11476,7 +11357,7 @@
       <c r="K233" s="69"/>
       <c r="L233" s="69"/>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="70"/>
       <c r="B234" s="70"/>
       <c r="C234" s="108"/>
@@ -11490,7 +11371,7 @@
       <c r="K234" s="69"/>
       <c r="L234" s="69"/>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="70"/>
       <c r="B235" s="70"/>
       <c r="C235" s="108"/>
@@ -11504,7 +11385,7 @@
       <c r="K235" s="69"/>
       <c r="L235" s="69"/>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="70"/>
       <c r="B236" s="70"/>
       <c r="C236" s="108"/>
@@ -11518,7 +11399,7 @@
       <c r="K236" s="69"/>
       <c r="L236" s="69"/>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="70"/>
       <c r="B237" s="70"/>
       <c r="C237" s="108"/>
@@ -11532,7 +11413,7 @@
       <c r="K237" s="69"/>
       <c r="L237" s="69"/>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="70"/>
       <c r="B238" s="70"/>
       <c r="C238" s="108"/>
@@ -11546,7 +11427,7 @@
       <c r="K238" s="69"/>
       <c r="L238" s="69"/>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="70"/>
       <c r="B239" s="70"/>
       <c r="C239" s="108"/>
@@ -11560,7 +11441,7 @@
       <c r="K239" s="69"/>
       <c r="L239" s="69"/>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="70"/>
       <c r="B240" s="70"/>
       <c r="C240" s="108"/>
@@ -11574,7 +11455,7 @@
       <c r="K240" s="69"/>
       <c r="L240" s="69"/>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="70"/>
       <c r="B241" s="70"/>
       <c r="C241" s="108"/>
@@ -11588,7 +11469,7 @@
       <c r="K241" s="69"/>
       <c r="L241" s="69"/>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="70"/>
       <c r="B242" s="70"/>
       <c r="C242" s="108"/>
@@ -11602,7 +11483,7 @@
       <c r="K242" s="69"/>
       <c r="L242" s="69"/>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="70"/>
       <c r="B243" s="70"/>
       <c r="C243" s="108"/>
@@ -11616,7 +11497,7 @@
       <c r="K243" s="69"/>
       <c r="L243" s="69"/>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="70"/>
       <c r="B244" s="70"/>
       <c r="C244" s="108"/>
@@ -11630,7 +11511,7 @@
       <c r="K244" s="69"/>
       <c r="L244" s="69"/>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="70"/>
       <c r="B245" s="70"/>
       <c r="C245" s="108"/>
@@ -11644,7 +11525,7 @@
       <c r="K245" s="69"/>
       <c r="L245" s="69"/>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="70"/>
       <c r="B246" s="70"/>
       <c r="C246" s="108"/>
@@ -11658,7 +11539,7 @@
       <c r="K246" s="69"/>
       <c r="L246" s="69"/>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="70"/>
       <c r="B247" s="70"/>
       <c r="C247" s="108"/>
@@ -11672,7 +11553,7 @@
       <c r="K247" s="69"/>
       <c r="L247" s="69"/>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="70"/>
       <c r="B248" s="70"/>
       <c r="C248" s="108"/>
@@ -11686,7 +11567,7 @@
       <c r="K248" s="69"/>
       <c r="L248" s="69"/>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="70"/>
       <c r="B249" s="70"/>
       <c r="C249" s="108"/>
@@ -11700,7 +11581,7 @@
       <c r="K249" s="69"/>
       <c r="L249" s="69"/>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="70"/>
       <c r="B250" s="70"/>
       <c r="C250" s="108"/>
@@ -11714,7 +11595,7 @@
       <c r="K250" s="69"/>
       <c r="L250" s="69"/>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="70"/>
       <c r="B251" s="70"/>
       <c r="C251" s="108"/>
@@ -11728,7 +11609,7 @@
       <c r="K251" s="69"/>
       <c r="L251" s="69"/>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="70"/>
       <c r="B252" s="70"/>
       <c r="C252" s="108"/>
@@ -11742,7 +11623,7 @@
       <c r="K252" s="69"/>
       <c r="L252" s="69"/>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="70"/>
       <c r="B253" s="70"/>
       <c r="C253" s="108"/>
@@ -11756,7 +11637,7 @@
       <c r="K253" s="69"/>
       <c r="L253" s="69"/>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="70"/>
       <c r="B254" s="70"/>
       <c r="C254" s="108"/>
@@ -11770,7 +11651,7 @@
       <c r="K254" s="69"/>
       <c r="L254" s="69"/>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="70"/>
       <c r="B255" s="70"/>
       <c r="C255" s="108"/>
@@ -11784,7 +11665,7 @@
       <c r="K255" s="69"/>
       <c r="L255" s="69"/>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="70"/>
       <c r="B256" s="70"/>
       <c r="C256" s="108"/>
@@ -11798,7 +11679,7 @@
       <c r="K256" s="69"/>
       <c r="L256" s="69"/>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="70"/>
       <c r="B257" s="70"/>
       <c r="C257" s="108"/>
@@ -11812,7 +11693,7 @@
       <c r="K257" s="69"/>
       <c r="L257" s="69"/>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="70"/>
       <c r="B258" s="70"/>
       <c r="C258" s="108"/>
@@ -11826,7 +11707,7 @@
       <c r="K258" s="69"/>
       <c r="L258" s="69"/>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="70"/>
       <c r="B259" s="70"/>
       <c r="C259" s="108"/>
@@ -11840,7 +11721,7 @@
       <c r="K259" s="69"/>
       <c r="L259" s="69"/>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="70"/>
       <c r="B260" s="70"/>
       <c r="C260" s="108"/>
@@ -11854,7 +11735,7 @@
       <c r="K260" s="69"/>
       <c r="L260" s="69"/>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="70"/>
       <c r="B261" s="70"/>
       <c r="C261" s="108"/>
@@ -11868,7 +11749,7 @@
       <c r="K261" s="69"/>
       <c r="L261" s="69"/>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="70"/>
       <c r="B262" s="70"/>
       <c r="C262" s="108"/>
@@ -11882,7 +11763,7 @@
       <c r="K262" s="69"/>
       <c r="L262" s="69"/>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="70"/>
       <c r="B263" s="70"/>
       <c r="C263" s="108"/>
@@ -11896,7 +11777,7 @@
       <c r="K263" s="69"/>
       <c r="L263" s="69"/>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="70"/>
       <c r="B264" s="70"/>
       <c r="C264" s="108"/>
@@ -11910,7 +11791,7 @@
       <c r="K264" s="69"/>
       <c r="L264" s="69"/>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="70"/>
       <c r="B265" s="70"/>
       <c r="C265" s="108"/>
@@ -11924,7 +11805,7 @@
       <c r="K265" s="69"/>
       <c r="L265" s="69"/>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="70"/>
       <c r="B266" s="70"/>
       <c r="C266" s="108"/>
@@ -11938,7 +11819,7 @@
       <c r="K266" s="69"/>
       <c r="L266" s="69"/>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="70"/>
       <c r="B267" s="70"/>
       <c r="C267" s="108"/>
@@ -11952,7 +11833,7 @@
       <c r="K267" s="69"/>
       <c r="L267" s="69"/>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="70"/>
       <c r="B268" s="70"/>
       <c r="C268" s="108"/>
@@ -11966,7 +11847,7 @@
       <c r="K268" s="69"/>
       <c r="L268" s="69"/>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="70"/>
       <c r="B269" s="70"/>
       <c r="C269" s="108"/>
@@ -11980,7 +11861,7 @@
       <c r="K269" s="69"/>
       <c r="L269" s="69"/>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="70"/>
       <c r="B270" s="70"/>
       <c r="C270" s="109"/>
@@ -11994,7 +11875,7 @@
       <c r="K270" s="69"/>
       <c r="L270" s="69"/>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="70"/>
       <c r="B271" s="70"/>
       <c r="C271" s="109"/>
@@ -12008,7 +11889,7 @@
       <c r="K271" s="69"/>
       <c r="L271" s="69"/>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="70"/>
       <c r="B272" s="70"/>
       <c r="C272" s="108"/>
@@ -12022,7 +11903,7 @@
       <c r="K272" s="69"/>
       <c r="L272" s="69"/>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="70"/>
       <c r="B273" s="70"/>
       <c r="C273" s="108"/>
@@ -12036,7 +11917,7 @@
       <c r="K273" s="69"/>
       <c r="L273" s="69"/>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="70"/>
       <c r="B274" s="70"/>
       <c r="C274" s="108"/>
@@ -12050,7 +11931,7 @@
       <c r="K274" s="69"/>
       <c r="L274" s="69"/>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="70"/>
       <c r="B275" s="70"/>
       <c r="C275" s="108"/>
@@ -12064,7 +11945,7 @@
       <c r="K275" s="69"/>
       <c r="L275" s="69"/>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="70"/>
       <c r="B276" s="70"/>
       <c r="C276" s="108"/>
@@ -12078,7 +11959,7 @@
       <c r="K276" s="69"/>
       <c r="L276" s="69"/>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="70"/>
       <c r="B277" s="70"/>
       <c r="C277" s="108"/>
@@ -12092,7 +11973,7 @@
       <c r="K277" s="69"/>
       <c r="L277" s="69"/>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="70"/>
       <c r="B278" s="70"/>
       <c r="C278" s="108"/>
@@ -12106,7 +11987,7 @@
       <c r="K278" s="69"/>
       <c r="L278" s="69"/>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="70"/>
       <c r="B279" s="70"/>
       <c r="C279" s="108"/>
@@ -12120,7 +12001,7 @@
       <c r="K279" s="69"/>
       <c r="L279" s="69"/>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="70"/>
       <c r="B280" s="70"/>
       <c r="C280" s="108"/>
@@ -12134,7 +12015,7 @@
       <c r="K280" s="69"/>
       <c r="L280" s="69"/>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="70"/>
       <c r="B281" s="70"/>
       <c r="C281" s="108"/>
@@ -12148,7 +12029,7 @@
       <c r="K281" s="69"/>
       <c r="L281" s="69"/>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="70"/>
       <c r="B282" s="70"/>
       <c r="C282" s="108"/>
@@ -12162,7 +12043,7 @@
       <c r="K282" s="69"/>
       <c r="L282" s="69"/>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="70"/>
       <c r="B283" s="70"/>
       <c r="C283" s="108"/>
@@ -12176,7 +12057,7 @@
       <c r="K283" s="69"/>
       <c r="L283" s="69"/>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="70"/>
       <c r="B284" s="70"/>
       <c r="C284" s="108"/>
@@ -12190,7 +12071,7 @@
       <c r="K284" s="69"/>
       <c r="L284" s="69"/>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="70"/>
       <c r="B285" s="70"/>
       <c r="C285" s="108"/>
@@ -12204,7 +12085,7 @@
       <c r="K285" s="69"/>
       <c r="L285" s="69"/>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="70"/>
       <c r="B286" s="70"/>
       <c r="C286" s="108"/>
@@ -12218,7 +12099,7 @@
       <c r="K286" s="69"/>
       <c r="L286" s="69"/>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="70"/>
       <c r="B287" s="70"/>
       <c r="C287" s="108"/>
@@ -12232,7 +12113,7 @@
       <c r="K287" s="69"/>
       <c r="L287" s="69"/>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="70"/>
       <c r="B288" s="70"/>
       <c r="C288" s="108"/>
@@ -12246,7 +12127,7 @@
       <c r="K288" s="69"/>
       <c r="L288" s="69"/>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="70"/>
       <c r="B289" s="70"/>
       <c r="C289" s="108"/>
@@ -12260,7 +12141,7 @@
       <c r="K289" s="69"/>
       <c r="L289" s="69"/>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="70"/>
       <c r="B290" s="70"/>
       <c r="C290" s="108"/>
@@ -12274,7 +12155,7 @@
       <c r="K290" s="69"/>
       <c r="L290" s="69"/>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="70"/>
       <c r="B291" s="70"/>
       <c r="C291" s="108"/>
@@ -12288,7 +12169,7 @@
       <c r="K291" s="69"/>
       <c r="L291" s="69"/>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="70"/>
       <c r="B292" s="70"/>
       <c r="C292" s="108"/>
@@ -12302,7 +12183,7 @@
       <c r="K292" s="69"/>
       <c r="L292" s="69"/>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="70"/>
       <c r="B293" s="70"/>
       <c r="C293" s="108"/>
@@ -12316,7 +12197,7 @@
       <c r="K293" s="69"/>
       <c r="L293" s="69"/>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="70"/>
       <c r="B294" s="70"/>
       <c r="C294" s="108"/>
@@ -12330,7 +12211,7 @@
       <c r="K294" s="69"/>
       <c r="L294" s="69"/>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="70"/>
       <c r="B295" s="70"/>
       <c r="C295" s="108"/>
@@ -12344,7 +12225,7 @@
       <c r="K295" s="69"/>
       <c r="L295" s="69"/>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="70"/>
       <c r="B296" s="70"/>
       <c r="C296" s="108"/>
@@ -12358,7 +12239,7 @@
       <c r="K296" s="69"/>
       <c r="L296" s="69"/>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="70"/>
       <c r="B297" s="70"/>
       <c r="C297" s="108"/>
@@ -12372,7 +12253,7 @@
       <c r="K297" s="69"/>
       <c r="L297" s="69"/>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="70"/>
       <c r="B298" s="70"/>
       <c r="C298" s="108"/>
@@ -12386,7 +12267,7 @@
       <c r="K298" s="69"/>
       <c r="L298" s="69"/>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="70"/>
       <c r="B299" s="70"/>
       <c r="C299" s="108"/>
@@ -12400,7 +12281,7 @@
       <c r="K299" s="69"/>
       <c r="L299" s="69"/>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="70"/>
       <c r="B300" s="70"/>
       <c r="C300" s="108"/>
@@ -12414,11 +12295,8 @@
       <c r="K300" s="69"/>
       <c r="L300" s="69"/>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A15:L303" xr:uid="{B93B8528-2113-476F-9314-D1F23A9B619F}">
+  <autoFilter ref="A15:L135" xr:uid="{A222E454-AF26-465D-B5EE-A2430600A085}">
     <filterColumn colId="1">
       <filters>
         <filter val="16"/>
